--- a/Code/Results/Cases/Case_5_157/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_157/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.25466823924348</v>
+        <v>12.13083128559433</v>
       </c>
       <c r="C2">
-        <v>10.00871991718332</v>
+        <v>10.47083485335432</v>
       </c>
       <c r="D2">
-        <v>2.223766451642363</v>
+        <v>5.288219612230457</v>
       </c>
       <c r="E2">
-        <v>7.076963190691266</v>
+        <v>11.81046704551659</v>
       </c>
       <c r="F2">
-        <v>45.19892369226189</v>
+        <v>51.50541655708708</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>30.17942351604936</v>
+        <v>35.28633954450277</v>
       </c>
       <c r="J2">
-        <v>6.560637015183213</v>
+        <v>10.52997060057699</v>
       </c>
       <c r="K2">
-        <v>10.9827736669358</v>
+        <v>13.82379104765772</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>11.00729228764442</v>
+        <v>17.03169587230134</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.45277042954013</v>
+        <v>12.04086693378412</v>
       </c>
       <c r="C3">
-        <v>9.451105625732943</v>
+        <v>10.37247870353692</v>
       </c>
       <c r="D3">
-        <v>2.155516295676066</v>
+        <v>5.317610910191197</v>
       </c>
       <c r="E3">
-        <v>6.963949578459157</v>
+        <v>11.82745611112423</v>
       </c>
       <c r="F3">
-        <v>43.85068767819698</v>
+        <v>51.23820060089898</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>29.48948530871264</v>
+        <v>35.14514794079982</v>
       </c>
       <c r="J3">
-        <v>6.53574333067651</v>
+        <v>10.54178900088667</v>
       </c>
       <c r="K3">
-        <v>10.42297918000232</v>
+        <v>13.77240958628216</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>10.67570329328232</v>
+        <v>17.03829306940237</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.934453115665324</v>
+        <v>11.9896448975629</v>
       </c>
       <c r="C4">
-        <v>9.100569785333597</v>
+        <v>10.31475015156614</v>
       </c>
       <c r="D4">
-        <v>2.111421749108139</v>
+        <v>5.336914150959911</v>
       </c>
       <c r="E4">
-        <v>6.898172012069106</v>
+        <v>11.83991031635697</v>
       </c>
       <c r="F4">
-        <v>43.02716953836295</v>
+        <v>51.08074179322443</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>29.07171473365178</v>
+        <v>35.06197438401553</v>
       </c>
       <c r="J4">
-        <v>6.522897804884698</v>
+        <v>10.5501029878294</v>
       </c>
       <c r="K4">
-        <v>10.07333534933905</v>
+        <v>13.74485088046345</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>10.47554134915637</v>
+        <v>17.04609730572863</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.716637411401651</v>
+        <v>11.9698055924706</v>
       </c>
       <c r="C5">
-        <v>8.955815655076659</v>
+        <v>10.29191967988683</v>
       </c>
       <c r="D5">
-        <v>2.092907649229621</v>
+        <v>5.345097126633174</v>
       </c>
       <c r="E5">
-        <v>6.872281493831258</v>
+        <v>11.84549423694146</v>
       </c>
       <c r="F5">
-        <v>42.6929235511168</v>
+        <v>51.01827354326323</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>28.90300929802529</v>
+        <v>35.0289788052053</v>
       </c>
       <c r="J5">
-        <v>6.518261097328201</v>
+        <v>10.55375708814004</v>
       </c>
       <c r="K5">
-        <v>9.929546877090223</v>
+        <v>13.73463357201728</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>10.39493106021509</v>
+        <v>17.05022212707956</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.680068814980299</v>
+        <v>11.96657441124179</v>
       </c>
       <c r="C6">
-        <v>8.931668989610522</v>
+        <v>10.28817133365382</v>
       </c>
       <c r="D6">
-        <v>2.089800631604975</v>
+        <v>5.346475054978184</v>
       </c>
       <c r="E6">
-        <v>6.868037760449332</v>
+        <v>11.84645216902842</v>
       </c>
       <c r="F6">
-        <v>42.63751152339828</v>
+        <v>51.00800422687809</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>28.87509091225763</v>
+        <v>35.02355454567325</v>
       </c>
       <c r="J6">
-        <v>6.517526844028749</v>
+        <v>10.55437992443639</v>
       </c>
       <c r="K6">
-        <v>9.905598118456659</v>
+        <v>13.73299844441839</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>10.38160642088117</v>
+        <v>17.05096410934256</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.93154238054573</v>
+        <v>11.98937312047298</v>
       </c>
       <c r="C7">
-        <v>9.098625090255185</v>
+        <v>10.3144394085849</v>
       </c>
       <c r="D7">
-        <v>2.111174261740317</v>
+        <v>5.337023225995003</v>
       </c>
       <c r="E7">
-        <v>6.89781913456387</v>
+        <v>11.83998356320606</v>
       </c>
       <c r="F7">
-        <v>43.02265597481252</v>
+        <v>51.07989240767583</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>29.06943318790742</v>
+        <v>35.06152573984598</v>
       </c>
       <c r="J7">
-        <v>6.52283287173799</v>
+        <v>10.55015119071936</v>
       </c>
       <c r="K7">
-        <v>10.07140118527798</v>
+        <v>13.74470897235934</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>10.47445020750772</v>
+        <v>17.04614910958174</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.98351445759269</v>
+        <v>12.09899307288955</v>
       </c>
       <c r="C8">
-        <v>9.818223199318295</v>
+        <v>10.43638441402225</v>
       </c>
       <c r="D8">
-        <v>2.200690930258356</v>
+        <v>5.298093289002688</v>
       </c>
       <c r="E8">
-        <v>7.037249978968871</v>
+        <v>11.8159050986402</v>
       </c>
       <c r="F8">
-        <v>44.7333081994155</v>
+        <v>51.41192946782465</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>29.94035645080806</v>
+        <v>35.23693478587299</v>
       </c>
       <c r="J8">
-        <v>6.551538005975198</v>
+        <v>10.53382622564336</v>
       </c>
       <c r="K8">
-        <v>10.79108706283633</v>
+        <v>13.80525296986621</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>10.89230194172851</v>
+        <v>17.03319206768032</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.84407181893016</v>
+        <v>12.34466704629655</v>
       </c>
       <c r="C9">
-        <v>11.16007148581165</v>
+        <v>10.69548322837255</v>
       </c>
       <c r="D9">
-        <v>2.358674877864062</v>
+        <v>5.231693322892033</v>
       </c>
       <c r="E9">
-        <v>7.339061736642345</v>
+        <v>11.78473225718034</v>
       </c>
       <c r="F9">
-        <v>48.11204134455404</v>
+        <v>52.11390353426037</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>31.69215456738495</v>
+        <v>35.60819839588357</v>
       </c>
       <c r="J9">
-        <v>6.627899472215269</v>
+        <v>10.51019541000404</v>
       </c>
       <c r="K9">
-        <v>12.48010536884884</v>
+        <v>13.95514050277612</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>11.7352042076353</v>
+        <v>17.03752013410457</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.09299806486143</v>
+        <v>12.54220632280939</v>
       </c>
       <c r="C10">
-        <v>12.09991149553737</v>
+        <v>10.89637817595281</v>
       </c>
       <c r="D10">
-        <v>2.463825084532889</v>
+        <v>5.188927412982427</v>
       </c>
       <c r="E10">
-        <v>7.577765167715919</v>
+        <v>11.77159993853605</v>
       </c>
       <c r="F10">
-        <v>50.59847949837143</v>
+        <v>52.6583417649792</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>33.00352702841263</v>
+        <v>35.89670185011058</v>
       </c>
       <c r="J10">
-        <v>6.697272872128587</v>
+        <v>10.49793332263322</v>
       </c>
       <c r="K10">
-        <v>13.68825966410644</v>
+        <v>14.08350743057755</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>12.36448802787959</v>
+        <v>17.05874291357861</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.63683625395863</v>
+        <v>12.63538487519399</v>
       </c>
       <c r="C11">
-        <v>12.51727820475879</v>
+        <v>10.98969237793414</v>
       </c>
       <c r="D11">
-        <v>2.509251803279412</v>
+        <v>5.1707699800362</v>
       </c>
       <c r="E11">
-        <v>7.689991558631649</v>
+        <v>11.76774293534267</v>
       </c>
       <c r="F11">
-        <v>51.7291552365989</v>
+        <v>52.91172146767566</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>33.60519676350107</v>
+        <v>36.03115638467165</v>
       </c>
       <c r="J11">
-        <v>6.731955394868288</v>
+        <v>10.493459694706</v>
       </c>
       <c r="K11">
-        <v>14.21465947648304</v>
+        <v>14.14568078525634</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>12.65227025695579</v>
+        <v>17.07228812916984</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.83939607678699</v>
+        <v>12.67111206126497</v>
       </c>
       <c r="C12">
-        <v>12.67387947411178</v>
+        <v>11.02527361381442</v>
       </c>
       <c r="D12">
-        <v>2.526104756631292</v>
+        <v>5.164080058426008</v>
       </c>
       <c r="E12">
-        <v>7.733010511840634</v>
+        <v>11.7665862341402</v>
       </c>
       <c r="F12">
-        <v>52.15720432085146</v>
+        <v>53.00844342986905</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>33.83377891057219</v>
+        <v>36.08251348016759</v>
       </c>
       <c r="J12">
-        <v>6.745559422127609</v>
+        <v>10.49192420386938</v>
       </c>
       <c r="K12">
-        <v>14.4107788968671</v>
+        <v>14.16975024953943</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>12.76142738035489</v>
+        <v>17.0779737161334</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.79591957274639</v>
+        <v>12.66339844941501</v>
       </c>
       <c r="C13">
-        <v>12.64021639074014</v>
+        <v>11.01760016211003</v>
       </c>
       <c r="D13">
-        <v>2.522490748361435</v>
+        <v>5.165512594104128</v>
       </c>
       <c r="E13">
-        <v>7.72372242301392</v>
+        <v>11.76682184608973</v>
       </c>
       <c r="F13">
-        <v>52.06502157131375</v>
+        <v>52.98757905716502</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>33.78451624410753</v>
+        <v>36.07143347448057</v>
       </c>
       <c r="J13">
-        <v>6.742608269091385</v>
+        <v>10.49224785076447</v>
       </c>
       <c r="K13">
-        <v>14.36868213627146</v>
+        <v>14.16454336683786</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>12.73791085549325</v>
+        <v>17.07672453716333</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.653568014603</v>
+        <v>12.63831550426035</v>
       </c>
       <c r="C14">
-        <v>12.53019069099247</v>
+        <v>10.99261493679102</v>
       </c>
       <c r="D14">
-        <v>2.5106453207869</v>
+        <v>5.170215873781354</v>
       </c>
       <c r="E14">
-        <v>7.693520306522959</v>
+        <v>11.76764168655431</v>
       </c>
       <c r="F14">
-        <v>51.76437346590864</v>
+        <v>52.91966364308111</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>33.62398733969611</v>
+        <v>36.03537282073308</v>
       </c>
       <c r="J14">
-        <v>6.733065049013559</v>
+        <v>10.4933301923534</v>
       </c>
       <c r="K14">
-        <v>14.23085809137883</v>
+        <v>14.14765056175489</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>12.66124722665936</v>
+        <v>17.07274475655944</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.56593700391241</v>
+        <v>12.62300806524357</v>
       </c>
       <c r="C15">
-        <v>12.46260931879107</v>
+        <v>10.97734174653687</v>
       </c>
       <c r="D15">
-        <v>2.503344094215944</v>
+        <v>5.173120960874209</v>
       </c>
       <c r="E15">
-        <v>7.675088518366096</v>
+        <v>11.76818341601093</v>
       </c>
       <c r="F15">
-        <v>51.58020245218437</v>
+        <v>52.8781626283544</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>33.52575611277237</v>
+        <v>36.01334159654554</v>
       </c>
       <c r="J15">
-        <v>6.727281484229716</v>
+        <v>10.49401380132732</v>
       </c>
       <c r="K15">
-        <v>14.14602166444248</v>
+        <v>14.13737116180926</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>12.61431116195065</v>
+        <v>17.07037937090738</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.05697749583376</v>
+        <v>12.53618070101222</v>
       </c>
       <c r="C16">
-        <v>12.07243172622531</v>
+        <v>10.89031591838773</v>
       </c>
       <c r="D16">
-        <v>2.460807646533754</v>
+        <v>5.190140091116401</v>
       </c>
       <c r="E16">
-        <v>7.570503887480662</v>
+        <v>11.77189455655532</v>
       </c>
       <c r="F16">
-        <v>50.52457295472485</v>
+        <v>52.64189360735286</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>32.96430953863685</v>
+        <v>35.88797789581928</v>
       </c>
       <c r="J16">
-        <v>6.69507093478526</v>
+        <v>10.49824788884063</v>
       </c>
       <c r="K16">
-        <v>13.6534013660165</v>
+        <v>14.07951880970725</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>12.3457077083641</v>
+        <v>17.0579357337651</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.73860105862112</v>
+        <v>12.48374019968294</v>
       </c>
       <c r="C17">
-        <v>11.8304686850568</v>
+        <v>10.83739916630706</v>
       </c>
       <c r="D17">
-        <v>2.434094266925661</v>
+        <v>5.200912536596662</v>
       </c>
       <c r="E17">
-        <v>7.507274200225386</v>
+        <v>11.77471306559575</v>
       </c>
       <c r="F17">
-        <v>49.87681615161272</v>
+        <v>52.49837895251324</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>32.62118878800528</v>
+        <v>35.81188029302533</v>
       </c>
       <c r="J17">
-        <v>6.676125616395241</v>
+        <v>10.50112807537923</v>
       </c>
       <c r="K17">
-        <v>13.34533520068799</v>
+        <v>14.0449838602991</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>12.1812848562486</v>
+        <v>17.05129638646001</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.55318422366649</v>
+        <v>12.45389213952863</v>
       </c>
       <c r="C18">
-        <v>11.69033796913615</v>
+        <v>10.80714606727995</v>
       </c>
       <c r="D18">
-        <v>2.418503083778316</v>
+        <v>5.207230677029918</v>
       </c>
       <c r="E18">
-        <v>7.471248630413163</v>
+        <v>11.77653349540043</v>
       </c>
       <c r="F18">
-        <v>49.50420413924711</v>
+        <v>52.41637378431307</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>32.4243149342923</v>
+        <v>35.76841461912877</v>
       </c>
       <c r="J18">
-        <v>6.665521478239564</v>
+        <v>10.50288865529539</v>
       </c>
       <c r="K18">
-        <v>13.16595274154353</v>
+        <v>14.02547705044087</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>12.08685736637945</v>
+        <v>17.04784405743345</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.49000773565692</v>
+        <v>12.4438411230376</v>
       </c>
       <c r="C19">
-        <v>11.64272716614182</v>
+        <v>10.79693532027981</v>
       </c>
       <c r="D19">
-        <v>2.413185397290387</v>
+        <v>5.209390882605481</v>
       </c>
       <c r="E19">
-        <v>7.459109925641687</v>
+        <v>11.77718410628291</v>
       </c>
       <c r="F19">
-        <v>49.37803987107026</v>
+        <v>52.38870256575622</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>32.35773947998222</v>
+        <v>35.7537506358715</v>
       </c>
       <c r="J19">
-        <v>6.661980750450169</v>
+        <v>10.50350262190967</v>
       </c>
       <c r="K19">
-        <v>13.10483716839956</v>
+        <v>14.01893417645617</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>12.05491202475774</v>
+        <v>17.04673818551198</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.77272950956271</v>
+        <v>12.48929029608452</v>
       </c>
       <c r="C20">
-        <v>11.85632538148542</v>
+        <v>10.84301351227538</v>
       </c>
       <c r="D20">
-        <v>2.436961401366477</v>
+        <v>5.199753157378059</v>
       </c>
       <c r="E20">
-        <v>7.513969688781574</v>
+        <v>11.77439240759066</v>
       </c>
       <c r="F20">
-        <v>49.94577561367021</v>
+        <v>52.51360072483248</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>32.65766491520965</v>
+        <v>35.8199497276815</v>
       </c>
       <c r="J20">
-        <v>6.678111934936758</v>
+        <v>10.50081071553268</v>
       </c>
       <c r="K20">
-        <v>13.37835529638082</v>
+        <v>14.0486233636142</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>12.19877335355593</v>
+        <v>17.05196525205968</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.69547087870301</v>
+        <v>12.6456712426711</v>
       </c>
       <c r="C21">
-        <v>12.56254690675162</v>
+        <v>10.99994730353185</v>
       </c>
       <c r="D21">
-        <v>2.514134110040411</v>
+        <v>5.168829365902335</v>
       </c>
       <c r="E21">
-        <v>7.702377252730501</v>
+        <v>11.76739263776822</v>
       </c>
       <c r="F21">
-        <v>51.85268431963654</v>
+        <v>52.93959147544117</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>33.67111823278047</v>
+        <v>36.04595287350991</v>
       </c>
       <c r="J21">
-        <v>6.735855176960472</v>
+        <v>10.49300798077404</v>
       </c>
       <c r="K21">
-        <v>14.27142665913711</v>
+        <v>14.15259826411013</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>12.68376052321227</v>
+        <v>17.07389864434228</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.2788961824824</v>
+        <v>12.75043794322532</v>
       </c>
       <c r="C22">
-        <v>13.03081917565541</v>
+        <v>11.10392682654414</v>
       </c>
       <c r="D22">
-        <v>2.562534402397864</v>
+        <v>5.14970219881374</v>
       </c>
       <c r="E22">
-        <v>7.8285524608185</v>
+        <v>11.76458868904577</v>
       </c>
       <c r="F22">
-        <v>53.09831576462263</v>
+        <v>53.2224805492042</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>34.33782010723208</v>
+        <v>36.19622601019963</v>
       </c>
       <c r="J22">
-        <v>6.776347339379445</v>
+        <v>10.48883260940936</v>
       </c>
       <c r="K22">
-        <v>14.83641340770591</v>
+        <v>14.22360759230098</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>13.05075789542686</v>
+        <v>17.09147415940582</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.96926734655368</v>
+        <v>12.69429906556659</v>
       </c>
       <c r="C23">
-        <v>12.7745999034726</v>
+        <v>11.04831214002078</v>
       </c>
       <c r="D23">
-        <v>2.536889590877678</v>
+        <v>5.159811800934291</v>
       </c>
       <c r="E23">
-        <v>7.760931954533734</v>
+        <v>11.7659233921785</v>
       </c>
       <c r="F23">
-        <v>52.4335603499871</v>
+        <v>53.0711039448442</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>33.98158179499733</v>
+        <v>36.11579430544911</v>
       </c>
       <c r="J23">
-        <v>6.754476480353944</v>
+        <v>10.49097660899441</v>
       </c>
       <c r="K23">
-        <v>14.53653723473803</v>
+        <v>14.18543504136603</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>12.83195618183035</v>
+        <v>17.08179842145187</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.7573074523401</v>
+        <v>12.4867801583005</v>
       </c>
       <c r="C24">
-        <v>11.84463875617241</v>
+        <v>10.84047473624942</v>
       </c>
       <c r="D24">
-        <v>2.435665896346185</v>
+        <v>5.200276923578744</v>
       </c>
       <c r="E24">
-        <v>7.510941642720315</v>
+        <v>11.77453675397154</v>
       </c>
       <c r="F24">
-        <v>49.91459968395613</v>
+        <v>52.50671739002519</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>32.64117284089619</v>
+        <v>35.81630065054788</v>
       </c>
       <c r="J24">
-        <v>6.677213025546074</v>
+        <v>10.50095386770708</v>
       </c>
       <c r="K24">
-        <v>13.36343399398786</v>
+        <v>14.04697685950993</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>12.19086648499288</v>
+        <v>17.05166172162981</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.36187970101876</v>
+        <v>12.27508518096452</v>
       </c>
       <c r="C25">
-        <v>10.80498698731818</v>
+        <v>10.62341790507823</v>
       </c>
       <c r="D25">
-        <v>2.317839931460117</v>
+        <v>5.248596386053736</v>
       </c>
       <c r="E25">
-        <v>7.254411850314862</v>
+        <v>11.79144835106124</v>
       </c>
       <c r="F25">
-        <v>47.19666659542256</v>
+        <v>51.91878645273502</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>31.21384734284608</v>
+        <v>35.50492947291677</v>
       </c>
       <c r="J25">
-        <v>6.604988879887838</v>
+        <v>10.51569179968752</v>
       </c>
       <c r="K25">
-        <v>12.01388563104385</v>
+        <v>13.91132861611723</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>11.50514819829007</v>
+        <v>17.03317275678762</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_157/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_157/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.13083128559433</v>
+        <v>11.25466823924344</v>
       </c>
       <c r="C2">
-        <v>10.47083485335432</v>
+        <v>10.0087199171833</v>
       </c>
       <c r="D2">
-        <v>5.288219612230457</v>
+        <v>2.223766451642167</v>
       </c>
       <c r="E2">
-        <v>11.81046704551659</v>
+        <v>7.076963190691271</v>
       </c>
       <c r="F2">
-        <v>51.50541655708708</v>
+        <v>45.19892369226209</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
-        <v>35.28633954450277</v>
+        <v>30.17942351604949</v>
       </c>
       <c r="J2">
-        <v>10.52997060057699</v>
+        <v>6.560637015183207</v>
       </c>
       <c r="K2">
-        <v>13.82379104765772</v>
+        <v>10.98277366693581</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.03169587230134</v>
+        <v>11.00729228764446</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.04086693378412</v>
+        <v>10.45277042954026</v>
       </c>
       <c r="C3">
-        <v>10.37247870353692</v>
+        <v>9.451105625732986</v>
       </c>
       <c r="D3">
-        <v>5.317610910191197</v>
+        <v>2.155516295676066</v>
       </c>
       <c r="E3">
-        <v>11.82745611112423</v>
+        <v>6.963949578459124</v>
       </c>
       <c r="F3">
-        <v>51.23820060089898</v>
+        <v>43.85068767819681</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>35.14514794079982</v>
+        <v>29.4894853087125</v>
       </c>
       <c r="J3">
-        <v>10.54178900088667</v>
+        <v>6.535743330676455</v>
       </c>
       <c r="K3">
-        <v>13.77240958628216</v>
+        <v>10.42297918000227</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.03829306940237</v>
+        <v>10.67570329328226</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.9896448975629</v>
+        <v>9.934453115665344</v>
       </c>
       <c r="C4">
-        <v>10.31475015156614</v>
+        <v>9.100569785333585</v>
       </c>
       <c r="D4">
-        <v>5.336914150959911</v>
+        <v>2.111421749108179</v>
       </c>
       <c r="E4">
-        <v>11.83991031635697</v>
+        <v>6.898172012068958</v>
       </c>
       <c r="F4">
-        <v>51.08074179322443</v>
+        <v>43.02716953836288</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>35.06197438401553</v>
+        <v>29.07171473365179</v>
       </c>
       <c r="J4">
-        <v>10.5501029878294</v>
+        <v>6.522897804884596</v>
       </c>
       <c r="K4">
-        <v>13.74485088046345</v>
+        <v>10.073335349339</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.04609730572863</v>
+        <v>10.47554134915624</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.9698055924706</v>
+        <v>9.716637411401672</v>
       </c>
       <c r="C5">
-        <v>10.29191967988683</v>
+        <v>8.955815655076755</v>
       </c>
       <c r="D5">
-        <v>5.345097126633174</v>
+        <v>2.092907649229736</v>
       </c>
       <c r="E5">
-        <v>11.84549423694146</v>
+        <v>6.872281493831359</v>
       </c>
       <c r="F5">
-        <v>51.01827354326323</v>
+        <v>42.69292355111696</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>35.0289788052053</v>
+        <v>28.90300929802535</v>
       </c>
       <c r="J5">
-        <v>10.55375708814004</v>
+        <v>6.518261097328326</v>
       </c>
       <c r="K5">
-        <v>13.73463357201728</v>
+        <v>9.929546877090232</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.05022212707956</v>
+        <v>10.39493106021512</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.96657441124179</v>
+        <v>9.680068814980213</v>
       </c>
       <c r="C6">
-        <v>10.28817133365382</v>
+        <v>8.9316689896106</v>
       </c>
       <c r="D6">
-        <v>5.346475054978184</v>
+        <v>2.089800631604984</v>
       </c>
       <c r="E6">
-        <v>11.84645216902842</v>
+        <v>6.868037760449385</v>
       </c>
       <c r="F6">
-        <v>51.00800422687809</v>
+        <v>42.63751152339864</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>35.02355454567325</v>
+        <v>28.87509091225786</v>
       </c>
       <c r="J6">
-        <v>10.55437992443639</v>
+        <v>6.5175268440288</v>
       </c>
       <c r="K6">
-        <v>13.73299844441839</v>
+        <v>9.905598118456748</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.05096410934256</v>
+        <v>10.38160642088127</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.98937312047298</v>
+        <v>9.931542380545832</v>
       </c>
       <c r="C7">
-        <v>10.3144394085849</v>
+        <v>9.098625090255249</v>
       </c>
       <c r="D7">
-        <v>5.337023225995003</v>
+        <v>2.111174261740197</v>
       </c>
       <c r="E7">
-        <v>11.83998356320606</v>
+        <v>6.897819134563917</v>
       </c>
       <c r="F7">
-        <v>51.07989240767583</v>
+        <v>43.02265597481224</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>35.06152573984598</v>
+        <v>29.06943318790713</v>
       </c>
       <c r="J7">
-        <v>10.55015119071936</v>
+        <v>6.52283287173802</v>
       </c>
       <c r="K7">
-        <v>13.74470897235934</v>
+        <v>10.07140118527792</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.04614910958174</v>
+        <v>10.47445020750767</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.09899307288955</v>
+        <v>10.98351445759277</v>
       </c>
       <c r="C8">
-        <v>10.43638441402225</v>
+        <v>9.81822319931825</v>
       </c>
       <c r="D8">
-        <v>5.298093289002688</v>
+        <v>2.200690930258484</v>
       </c>
       <c r="E8">
-        <v>11.8159050986402</v>
+        <v>7.037249978968893</v>
       </c>
       <c r="F8">
-        <v>51.41192946782465</v>
+        <v>44.7333081994154</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>35.23693478587299</v>
+        <v>29.94035645080808</v>
       </c>
       <c r="J8">
-        <v>10.53382622564336</v>
+        <v>6.551538005975342</v>
       </c>
       <c r="K8">
-        <v>13.80525296986621</v>
+        <v>10.79108706283627</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.03319206768032</v>
+        <v>10.89230194172846</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.34466704629655</v>
+        <v>12.84407181893022</v>
       </c>
       <c r="C9">
-        <v>10.69548322837255</v>
+        <v>11.16007148581159</v>
       </c>
       <c r="D9">
-        <v>5.231693322892033</v>
+        <v>2.358674877864048</v>
       </c>
       <c r="E9">
-        <v>11.78473225718034</v>
+        <v>7.339061736642383</v>
       </c>
       <c r="F9">
-        <v>52.11390353426037</v>
+        <v>48.11204134455409</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>35.60819839588357</v>
+        <v>31.692154567385</v>
       </c>
       <c r="J9">
-        <v>10.51019541000404</v>
+        <v>6.627899472215326</v>
       </c>
       <c r="K9">
-        <v>13.95514050277612</v>
+        <v>12.48010536884886</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.03752013410457</v>
+        <v>11.73520420763531</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.54220632280939</v>
+        <v>14.09299806486151</v>
       </c>
       <c r="C10">
-        <v>10.89637817595281</v>
+        <v>12.09991149553732</v>
       </c>
       <c r="D10">
-        <v>5.188927412982427</v>
+        <v>2.463825084533005</v>
       </c>
       <c r="E10">
-        <v>11.77159993853605</v>
+        <v>7.577765167715891</v>
       </c>
       <c r="F10">
-        <v>52.6583417649792</v>
+        <v>50.59847949837153</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>35.89670185011058</v>
+        <v>33.00352702841269</v>
       </c>
       <c r="J10">
-        <v>10.49793332263322</v>
+        <v>6.697272872128599</v>
       </c>
       <c r="K10">
-        <v>14.08350743057755</v>
+        <v>13.68825966410644</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.05874291357861</v>
+        <v>12.36448802787958</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.63538487519399</v>
+        <v>14.63683625395859</v>
       </c>
       <c r="C11">
-        <v>10.98969237793414</v>
+        <v>12.51727820475877</v>
       </c>
       <c r="D11">
-        <v>5.1707699800362</v>
+        <v>2.509251803279221</v>
       </c>
       <c r="E11">
-        <v>11.76774293534267</v>
+        <v>7.689991558631657</v>
       </c>
       <c r="F11">
-        <v>52.91172146767566</v>
+        <v>51.72915523659906</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>36.03115638467165</v>
+        <v>33.60519676350119</v>
       </c>
       <c r="J11">
-        <v>10.493459694706</v>
+        <v>6.731955394868232</v>
       </c>
       <c r="K11">
-        <v>14.14568078525634</v>
+        <v>14.21465947648306</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.07228812916984</v>
+        <v>12.65227025695579</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.67111206126497</v>
+        <v>14.83939607678698</v>
       </c>
       <c r="C12">
-        <v>11.02527361381442</v>
+        <v>12.67387947411177</v>
       </c>
       <c r="D12">
-        <v>5.164080058426008</v>
+        <v>2.52610475663136</v>
       </c>
       <c r="E12">
-        <v>11.7665862341402</v>
+        <v>7.7330105118406</v>
       </c>
       <c r="F12">
-        <v>53.00844342986905</v>
+        <v>52.15720432085161</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>36.08251348016759</v>
+        <v>33.83377891057226</v>
       </c>
       <c r="J12">
-        <v>10.49192420386938</v>
+        <v>6.74555942212758</v>
       </c>
       <c r="K12">
-        <v>14.16975024953943</v>
+        <v>14.41077889686707</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.0779737161334</v>
+        <v>12.7614273803549</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.66339844941501</v>
+        <v>14.79591957274646</v>
       </c>
       <c r="C13">
-        <v>11.01760016211003</v>
+        <v>12.64021639074013</v>
       </c>
       <c r="D13">
-        <v>5.165512594104128</v>
+        <v>2.522490748361496</v>
       </c>
       <c r="E13">
-        <v>11.76682184608973</v>
+        <v>7.723722423014003</v>
       </c>
       <c r="F13">
-        <v>52.98757905716502</v>
+        <v>52.06502157131382</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>36.07143347448057</v>
+        <v>33.78451624410754</v>
       </c>
       <c r="J13">
-        <v>10.49224785076447</v>
+        <v>6.742608269091472</v>
       </c>
       <c r="K13">
-        <v>14.16454336683786</v>
+        <v>14.36868213627149</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.07672453716333</v>
+        <v>12.73791085549326</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.63831550426035</v>
+        <v>14.65356801460302</v>
       </c>
       <c r="C14">
-        <v>10.99261493679102</v>
+        <v>12.5301906909925</v>
       </c>
       <c r="D14">
-        <v>5.170215873781354</v>
+        <v>2.510645320786696</v>
       </c>
       <c r="E14">
-        <v>11.76764168655431</v>
+        <v>7.693520306522872</v>
       </c>
       <c r="F14">
-        <v>52.91966364308111</v>
+        <v>51.76437346590863</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>36.03537282073308</v>
+        <v>33.62398733969604</v>
       </c>
       <c r="J14">
-        <v>10.4933301923534</v>
+        <v>6.733065049013407</v>
       </c>
       <c r="K14">
-        <v>14.14765056175489</v>
+        <v>14.23085809137892</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.07274475655944</v>
+        <v>12.66124722665932</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.62300806524357</v>
+        <v>14.56593700391232</v>
       </c>
       <c r="C15">
-        <v>10.97734174653687</v>
+        <v>12.4626093187911</v>
       </c>
       <c r="D15">
-        <v>5.173120960874209</v>
+        <v>2.503344094216074</v>
       </c>
       <c r="E15">
-        <v>11.76818341601093</v>
+        <v>7.675088518366159</v>
       </c>
       <c r="F15">
-        <v>52.8781626283544</v>
+        <v>51.58020245218423</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>36.01334159654554</v>
+        <v>33.52575611277235</v>
       </c>
       <c r="J15">
-        <v>10.49401380132732</v>
+        <v>6.727281484229778</v>
       </c>
       <c r="K15">
-        <v>14.13737116180926</v>
+        <v>14.14602166444248</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.07037937090738</v>
+        <v>12.61431116195066</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.53618070101222</v>
+        <v>14.05697749583373</v>
       </c>
       <c r="C16">
-        <v>10.89031591838773</v>
+        <v>12.07243172622533</v>
       </c>
       <c r="D16">
-        <v>5.190140091116401</v>
+        <v>2.460807646533755</v>
       </c>
       <c r="E16">
-        <v>11.77189455655532</v>
+        <v>7.570503887480672</v>
       </c>
       <c r="F16">
-        <v>52.64189360735286</v>
+        <v>50.52457295472495</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>35.88797789581928</v>
+        <v>32.96430953863692</v>
       </c>
       <c r="J16">
-        <v>10.49824788884063</v>
+        <v>6.695070934785302</v>
       </c>
       <c r="K16">
-        <v>14.07951880970725</v>
+        <v>13.65340136601645</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.0579357337651</v>
+        <v>12.3457077083641</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.48374019968294</v>
+        <v>13.73860105862106</v>
       </c>
       <c r="C17">
-        <v>10.83739916630706</v>
+        <v>11.83046868505678</v>
       </c>
       <c r="D17">
-        <v>5.200912536596662</v>
+        <v>2.43409426692569</v>
       </c>
       <c r="E17">
-        <v>11.77471306559575</v>
+        <v>7.507274200225378</v>
       </c>
       <c r="F17">
-        <v>52.49837895251324</v>
+        <v>49.87681615161294</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>35.81188029302533</v>
+        <v>32.62118878800548</v>
       </c>
       <c r="J17">
-        <v>10.50112807537923</v>
+        <v>6.676125616395298</v>
       </c>
       <c r="K17">
-        <v>14.0449838602991</v>
+        <v>13.34533520068793</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.05129638646001</v>
+        <v>12.1812848562486</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.45389213952863</v>
+        <v>13.55318422366655</v>
       </c>
       <c r="C18">
-        <v>10.80714606727995</v>
+        <v>11.69033796913623</v>
       </c>
       <c r="D18">
-        <v>5.207230677029918</v>
+        <v>2.418503083778276</v>
       </c>
       <c r="E18">
-        <v>11.77653349540043</v>
+        <v>7.471248630413147</v>
       </c>
       <c r="F18">
-        <v>52.41637378431307</v>
+        <v>49.50420413924711</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>35.76841461912877</v>
+        <v>32.4243149342923</v>
       </c>
       <c r="J18">
-        <v>10.50288865529539</v>
+        <v>6.665521478239612</v>
       </c>
       <c r="K18">
-        <v>14.02547705044087</v>
+        <v>13.16595274154362</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.04784405743345</v>
+        <v>12.08685736637945</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.4438411230376</v>
+        <v>13.49000773565693</v>
       </c>
       <c r="C19">
-        <v>10.79693532027981</v>
+        <v>11.64272716614179</v>
       </c>
       <c r="D19">
-        <v>5.209390882605481</v>
+        <v>2.413185397290202</v>
       </c>
       <c r="E19">
-        <v>11.77718410628291</v>
+        <v>7.459109925641686</v>
       </c>
       <c r="F19">
-        <v>52.38870256575622</v>
+        <v>49.37803987107036</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>35.7537506358715</v>
+        <v>32.35773947998224</v>
       </c>
       <c r="J19">
-        <v>10.50350262190967</v>
+        <v>6.661980750450115</v>
       </c>
       <c r="K19">
-        <v>14.01893417645617</v>
+        <v>13.10483716839952</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.04673818551198</v>
+        <v>12.05491202475777</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.48929029608452</v>
+        <v>13.77272950956266</v>
       </c>
       <c r="C20">
-        <v>10.84301351227538</v>
+        <v>11.85632538148534</v>
       </c>
       <c r="D20">
-        <v>5.199753157378059</v>
+        <v>2.436961401366859</v>
       </c>
       <c r="E20">
-        <v>11.77439240759066</v>
+        <v>7.513969688781534</v>
       </c>
       <c r="F20">
-        <v>52.51360072483248</v>
+        <v>49.94577561367011</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>35.8199497276815</v>
+        <v>32.65766491520961</v>
       </c>
       <c r="J20">
-        <v>10.50081071553268</v>
+        <v>6.678111934936794</v>
       </c>
       <c r="K20">
-        <v>14.0486233636142</v>
+        <v>13.37835529638075</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.05196525205968</v>
+        <v>12.19877335355596</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.6456712426711</v>
+        <v>14.69547087870315</v>
       </c>
       <c r="C21">
-        <v>10.99994730353185</v>
+        <v>12.56254690675155</v>
       </c>
       <c r="D21">
-        <v>5.168829365902335</v>
+        <v>2.514134110040601</v>
       </c>
       <c r="E21">
-        <v>11.76739263776822</v>
+        <v>7.702377252730463</v>
       </c>
       <c r="F21">
-        <v>52.93959147544117</v>
+        <v>51.85268431963637</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>36.04595287350991</v>
+        <v>33.67111823278034</v>
       </c>
       <c r="J21">
-        <v>10.49300798077404</v>
+        <v>6.735855176960507</v>
       </c>
       <c r="K21">
-        <v>14.15259826411013</v>
+        <v>14.27142665913714</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.07389864434228</v>
+        <v>12.68376052321226</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.75043794322532</v>
+        <v>15.27889618248238</v>
       </c>
       <c r="C22">
-        <v>11.10392682654414</v>
+        <v>13.03081917565531</v>
       </c>
       <c r="D22">
-        <v>5.14970219881374</v>
+        <v>2.562534402397864</v>
       </c>
       <c r="E22">
-        <v>11.76458868904577</v>
+        <v>7.828552460818498</v>
       </c>
       <c r="F22">
-        <v>53.2224805492042</v>
+        <v>53.09831576462267</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>36.19622601019963</v>
+        <v>34.33782010723213</v>
       </c>
       <c r="J22">
-        <v>10.48883260940936</v>
+        <v>6.776347339379399</v>
       </c>
       <c r="K22">
-        <v>14.22360759230098</v>
+        <v>14.83641340770591</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.09147415940582</v>
+        <v>13.05075789542685</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.69429906556659</v>
+        <v>14.96926734655368</v>
       </c>
       <c r="C23">
-        <v>11.04831214002078</v>
+        <v>12.77459990347257</v>
       </c>
       <c r="D23">
-        <v>5.159811800934291</v>
+        <v>2.536889590877719</v>
       </c>
       <c r="E23">
-        <v>11.7659233921785</v>
+        <v>7.760931954533682</v>
       </c>
       <c r="F23">
-        <v>53.0711039448442</v>
+        <v>52.43356034998708</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>36.11579430544911</v>
+        <v>33.98158179499737</v>
       </c>
       <c r="J23">
-        <v>10.49097660899441</v>
+        <v>6.754476480353929</v>
       </c>
       <c r="K23">
-        <v>14.18543504136603</v>
+        <v>14.53653723473805</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.08179842145187</v>
+        <v>12.83195618183033</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.4867801583005</v>
+        <v>13.75730745234017</v>
       </c>
       <c r="C24">
-        <v>10.84047473624942</v>
+        <v>11.8446387561724</v>
       </c>
       <c r="D24">
-        <v>5.200276923578744</v>
+        <v>2.435665896346104</v>
       </c>
       <c r="E24">
-        <v>11.77453675397154</v>
+        <v>7.510941642720343</v>
       </c>
       <c r="F24">
-        <v>52.50671739002519</v>
+        <v>49.91459968395625</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>35.81630065054788</v>
+        <v>32.64117284089625</v>
       </c>
       <c r="J24">
-        <v>10.50095386770708</v>
+        <v>6.67721302554609</v>
       </c>
       <c r="K24">
-        <v>14.04697685950993</v>
+        <v>13.36343399398794</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.05166172162981</v>
+        <v>12.19086648499288</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.27508518096452</v>
+        <v>12.36187970101891</v>
       </c>
       <c r="C25">
-        <v>10.62341790507823</v>
+        <v>10.80498698731823</v>
       </c>
       <c r="D25">
-        <v>5.248596386053736</v>
+        <v>2.31783993146029</v>
       </c>
       <c r="E25">
-        <v>11.79144835106124</v>
+        <v>7.254411850314849</v>
       </c>
       <c r="F25">
-        <v>51.91878645273502</v>
+        <v>47.19666659542254</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>35.50492947291677</v>
+        <v>31.21384734284601</v>
       </c>
       <c r="J25">
-        <v>10.51569179968752</v>
+        <v>6.604988879887869</v>
       </c>
       <c r="K25">
-        <v>13.91132861611723</v>
+        <v>12.01388563104391</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.03317275678762</v>
+        <v>11.50514819829002</v>
       </c>
       <c r="N25">
         <v>0</v>
